--- a/DÍA 4/Relativos+y+Absolutos.xlsx
+++ b/DÍA 4/Relativos+y+Absolutos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUSTAVO\Documents\Cursos Udemy\ExcelTotal\DÍA 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1921890-88A1-46A6-BF6F-E47B093F6D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DDF3C2-F99A-4CE2-9CE4-6A9F9F063B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{89B45AFE-0D51-45C3-8AF8-197F8903360E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{89B45AFE-0D51-45C3-8AF8-197F8903360E}"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <t>RELATIVO/RELATIVO</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>en este caso, siempre queda fija la fila B(queda anclada con lso demas valores) - siempre se va a referir a la fila 2</t>
+  </si>
+  <si>
+    <t>en este caso queda fijada tanto la fila como la columna, y siempre hará referencia a esa celda</t>
+  </si>
+  <si>
+    <t>no estan fijadas ni la fila ni la columna. En algunos casos esto es necesario, pero en otros casos cuando se necesita hacer referencia siempre a una misma celda, es importante fijar la celda</t>
   </si>
 </sst>
 </file>
@@ -867,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06017CC5-A9C8-4A06-9FD4-02C10D35890C}">
   <dimension ref="B1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,6 +974,12 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="5" t="s">
         <v>2</v>
       </c>
@@ -987,8 +999,12 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:14" ht="58.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <v>21</v>
       </c>
@@ -999,6 +1015,10 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B9" s="2">
@@ -1073,11 +1093,12 @@
       <c r="N13" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="K2:N3"/>
     <mergeCell ref="K5:N6"/>
     <mergeCell ref="K9:N10"/>
     <mergeCell ref="K12:N13"/>
+    <mergeCell ref="F6:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1089,7 +1110,7 @@
   <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F7" sqref="F7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1196,6 +1217,12 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:15" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
@@ -1206,6 +1233,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B9" s="10"/>
@@ -1216,6 +1247,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
       <c r="K9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1274,11 +1309,12 @@
       <c r="O13" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="L2:O3"/>
     <mergeCell ref="L5:O6"/>
     <mergeCell ref="L9:O10"/>
     <mergeCell ref="L12:O13"/>
+    <mergeCell ref="F7:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1521,7 +1557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0A3FCB-BB6B-4AA2-A346-ABFEFC560A65}">
   <dimension ref="A2:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
